--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/105.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/105.xlsx
@@ -479,13 +479,13 @@
         <v>-19.44234942387268</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.1607836304072</v>
+        <v>-14.09523182633561</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.323732603218094</v>
+        <v>-5.348055412380996</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.437524056169973</v>
+        <v>-7.396534622597758</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.29857123719259</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.1639321508295</v>
+        <v>-14.12809573049501</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.435011288515945</v>
+        <v>-5.457324715856545</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.58101151870706</v>
+        <v>-7.53919095396747</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.16143681670328</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.48948134008363</v>
+        <v>-14.47253115327604</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.530131806118642</v>
+        <v>-5.547922902107346</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.304572403431088</v>
+        <v>-7.274534345240762</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.07068986716163</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.36971044985795</v>
+        <v>-14.37162205154291</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.160341993725797</v>
+        <v>-5.181882957981424</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.235089837838493</v>
+        <v>-7.210674137545119</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.00970185973056</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.50617729853414</v>
+        <v>-14.53163435729017</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.177375293650128</v>
+        <v>-5.193034782644856</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.138419505058984</v>
+        <v>-7.103311546747667</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.98528408117365</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.85341412224991</v>
+        <v>-14.89539602421611</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.051771818232216</v>
+        <v>-5.068462887675864</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.859907450871439</v>
+        <v>-6.828960037403868</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.98689872421044</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.16948841619596</v>
+        <v>-15.22368305731572</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.046951257461438</v>
+        <v>-5.05217760580217</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.899923972077138</v>
+        <v>-6.853972196535005</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-18.9960489363857</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.42708040999998</v>
+        <v>-15.499633271905</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.799973297565495</v>
+        <v>-4.810103319793743</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.532960005653369</v>
+        <v>-6.505268670759163</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-19.0092798917525</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.81167902419271</v>
+        <v>-15.89894779676714</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.649137657707436</v>
+        <v>-4.651694608298832</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.495197316613319</v>
+        <v>-6.468791790525111</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-18.99091297102293</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.95035570397275</v>
+        <v>-16.05983034573671</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.786929427244567</v>
+        <v>-4.783722238739871</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.156457586832249</v>
+        <v>-6.134183271546584</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-18.9509020357277</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.37597797478577</v>
+        <v>-16.52085391527306</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.492278761389336</v>
+        <v>-4.499534047579838</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.034799539955938</v>
+        <v>-6.019110716920007</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-18.85496533738565</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.78827281287957</v>
+        <v>-16.95045094866887</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.263067452447763</v>
+        <v>-4.260720729151644</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.123442123459973</v>
+        <v>-6.092817384445618</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-18.72509300291547</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.04146470050336</v>
+        <v>-17.23668274469928</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.983406481646494</v>
+        <v>-3.980282406258535</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.899623389092606</v>
+        <v>-5.864632766946096</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-18.55221612725364</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.28857955259158</v>
+        <v>-17.51504812868081</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.840163469452753</v>
+        <v>-3.838682100372078</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.618813501677613</v>
+        <v>-5.579359216261609</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-18.36037276411817</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.79006454295851</v>
+        <v>-18.03156192615664</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.407853037245799</v>
+        <v>-3.404508956548829</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.30895313545941</v>
+        <v>-5.258219911201434</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-18.16658764977324</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.43892375632173</v>
+        <v>-18.70065673894202</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.229986078420566</v>
+        <v>-3.226021093851498</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.232958412720084</v>
+        <v>-5.175639696212373</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-17.98599397730014</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.96966456378028</v>
+        <v>-19.24774638536354</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.873117911176976</v>
+        <v>-2.861061620243164</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.988537403415538</v>
+        <v>-4.925195430447788</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-17.8460419649667</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.3939423577049</v>
+        <v>-19.6979505827034</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.595598325383416</v>
+        <v>-2.577284105659952</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.713315650849428</v>
+        <v>-4.661306395799187</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-17.7379836141152</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.85517615453652</v>
+        <v>-20.17734704004561</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.234525612234279</v>
+        <v>-2.221310626673008</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.64442465508773</v>
+        <v>-4.598326209339588</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-17.68774583343818</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.36985657443726</v>
+        <v>-20.70490999304067</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.98545026839243</v>
+        <v>-1.989141468576951</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.643446853714346</v>
+        <v>-4.609424254927485</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-17.66747359974745</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.77995135944095</v>
+        <v>-21.13761154579698</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.745121357835492</v>
+        <v>-1.749604577132453</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.487414199556756</v>
+        <v>-4.470913801380918</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-17.69242266874955</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.11429587204866</v>
+        <v>-21.4700640127472</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.590506515669307</v>
+        <v>-1.591107863513938</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.455620987901208</v>
+        <v>-4.444562054368246</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-17.73470449406264</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.56436806620312</v>
+        <v>-21.92127045649478</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.432953380376106</v>
+        <v>-1.435769448331449</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.538567878405287</v>
+        <v>-4.529048982035404</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-17.79151659754342</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.01825368571377</v>
+        <v>-22.3706826347222</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.241807878900332</v>
+        <v>-1.262283039658972</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.637433375268041</v>
+        <v>-4.630569209626892</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-17.84486426993157</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.87675604897152</v>
+        <v>-22.240718165179</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.031996149206677</v>
+        <v>-1.062635555241633</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.684367841190425</v>
+        <v>-4.687716810894261</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-17.8779401814671</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.12702919949576</v>
+        <v>-22.4876130119582</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8769364074156029</v>
+        <v>-0.9169969296831039</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.705551907944767</v>
+        <v>-4.699215755045246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-17.8863500944296</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.14823771128444</v>
+        <v>-22.49649144842852</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6894527720831484</v>
+        <v>-0.732124024017582</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.603391220453712</v>
+        <v>-4.608451342560969</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-17.84311784181619</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.32798204874656</v>
+        <v>-22.67632378801425</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7611696138139238</v>
+        <v>-0.7973629316496951</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.434529812277337</v>
+        <v>-4.447109226945909</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-17.75834097136977</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.4317414414831</v>
+        <v>-22.75327186709263</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5509276515159802</v>
+        <v>-0.6074690159318517</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.642014374702341</v>
+        <v>-4.65047724558897</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-17.60445958328355</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.43834160075344</v>
+        <v>-22.74065334036912</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6935302038101555</v>
+        <v>-0.7471430531127448</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.421446829901472</v>
+        <v>-4.448409702772508</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-17.40029027980641</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.34990924454468</v>
+        <v>-22.6443839061527</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6115464476588587</v>
+        <v>-0.6712363324970233</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.40584111998228</v>
+        <v>-4.430608828770072</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-17.13162231840164</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.11263596327956</v>
+        <v>-22.4048763487494</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6046676149971094</v>
+        <v>-0.6656677536756072</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.267296443387644</v>
+        <v>-4.29641536828699</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-16.81510802198533</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.90070240460567</v>
+        <v>-22.17644239189967</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7070923088589776</v>
+        <v>-0.7757144092429957</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.950063454814134</v>
+        <v>-3.985200747166652</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-16.45577563658898</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.74504131496996</v>
+        <v>-21.99876610434224</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7031664363448448</v>
+        <v>-0.7730401224867932</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.799824273793837</v>
+        <v>-3.833030408433924</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-16.06492505033786</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.7708210481792</v>
+        <v>-22.01218153918506</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8526380432870355</v>
+        <v>-0.9165031399895455</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.754566737226806</v>
+        <v>-3.786179055628278</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-15.66077726541964</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27971053038386</v>
+        <v>-21.52105146536225</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.9744427603693545</v>
+        <v>-1.022482141843661</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.705613111468387</v>
+        <v>-3.723413985470824</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-15.24417828790072</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.25735799098833</v>
+        <v>-21.47431255971454</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.211691596600136</v>
+        <v>-1.257829154403213</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.347830699940684</v>
+        <v>-3.369914343958539</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-14.8405362920135</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.6595693433569</v>
+        <v>-20.88088490620841</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.160933927307825</v>
+        <v>-1.212644952939185</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.293655614848399</v>
+        <v>-3.318990448432753</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-14.43613116327519</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.425190354157</v>
+        <v>-20.62258400640869</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.388062519324093</v>
+        <v>-1.425282528601916</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.133012627215308</v>
+        <v>-3.154499812395399</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-14.05140369590617</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.89266017018516</v>
+        <v>-20.10656399862642</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.225776825383718</v>
+        <v>-1.281897735209035</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.847123061665589</v>
+        <v>-2.873572588815599</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-13.6698581576945</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.38554304390754</v>
+        <v>-19.59134089896346</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.302661347372823</v>
+        <v>-1.348295337468607</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.51868446935311</v>
+        <v>-2.559199669259234</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-13.30258297481835</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.01148023951301</v>
+        <v>-19.21312732773891</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.432782265135764</v>
+        <v>-1.464379916516635</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.348136353807649</v>
+        <v>-2.403626581747134</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.94003979882947</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.62667628703187</v>
+        <v>-18.81359768657462</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.399145897891389</v>
+        <v>-1.435099654390682</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.346205196095218</v>
+        <v>-2.403509245582328</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.58136731120548</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.32785040931229</v>
+        <v>-18.51127616894521</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.466487078476276</v>
+        <v>-1.510253467948898</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.993463350647304</v>
+        <v>-2.057162221116339</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-12.2259905924541</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.87438524439219</v>
+        <v>-18.05726343525602</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.458009540569045</v>
+        <v>-1.495953122863172</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.030878920199804</v>
+        <v>-2.096445391292001</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.86321997495007</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.44148324235434</v>
+        <v>-17.62346185595465</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.559065312508177</v>
+        <v>-1.59462305945125</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.059714282700869</v>
+        <v>-2.124679405948434</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.50173595970255</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.01015061152077</v>
+        <v>-17.19166965847559</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.626225599838988</v>
+        <v>-1.675003221350198</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.924474574748267</v>
+        <v>-2.002268452014618</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.12522470255573</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.75403998679743</v>
+        <v>-16.92421653782101</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.643029116440574</v>
+        <v>-1.677085938275504</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.926278618282159</v>
+        <v>-1.997340333092768</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.74940443154296</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.31098840650387</v>
+        <v>-16.47991826077638</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.647258107380456</v>
+        <v>-1.692090300350066</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.074865314981438</v>
+        <v>-2.143189185946575</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.36315106502261</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.16087633966211</v>
+        <v>-16.32507363528745</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.490169427739612</v>
+        <v>-1.533833148068029</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.934619263997116</v>
+        <v>-2.016407459873736</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.981494054318317</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.75269804535025</v>
+        <v>-15.9131992517842</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.494447308748162</v>
+        <v>-1.543459602588985</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.768945488297969</v>
+        <v>-1.867766984098921</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.602701002915357</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.79007939185468</v>
+        <v>-15.93559579224154</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.550411770353738</v>
+        <v>-1.591552763138827</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.934775712216857</v>
+        <v>-2.044646363537037</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.234800920890683</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.44482750492688</v>
+        <v>-15.58626158457986</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.491152118119861</v>
+        <v>-1.529095700413988</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.773115811155447</v>
+        <v>-1.905837680571588</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.882709768319561</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.13630183758334</v>
+        <v>-15.27214289338058</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.457569529951023</v>
+        <v>-1.5010914690803</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.16180163508892</v>
+        <v>-2.286754872593532</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.544516120877754</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.00324262669339</v>
+        <v>-15.1412152894846</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.538731932948678</v>
+        <v>-1.578528448845365</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.019409310090022</v>
+        <v>-2.157269525723289</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.229889947599007</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.92070152375926</v>
+        <v>-15.04725346650936</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.599120945768811</v>
+        <v>-1.646299862034541</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.014872311717525</v>
+        <v>-2.166944870312914</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.927174679191407</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.51668377429115</v>
+        <v>-14.63877205377175</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.461402511334684</v>
+        <v>-1.503892870015042</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.353338257114046</v>
+        <v>-2.495882141325819</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.647733437821867</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.56619474683239</v>
+        <v>-14.6865376508615</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.508635206675949</v>
+        <v>-1.549580639186362</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.519569379596021</v>
+        <v>-2.666259141630938</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.378700807750484</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.48213805176952</v>
+        <v>-14.5926736080236</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.503394191314617</v>
+        <v>-1.545713434754632</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.451137950479813</v>
+        <v>-2.603181175034001</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.126056299064124</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.47752771829402</v>
+        <v>-14.58084221140567</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.557862616818916</v>
+        <v>-1.610624778926662</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.770551436115968</v>
+        <v>-2.920199047305367</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.880502604326046</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.27565573575224</v>
+        <v>-14.3753914758373</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.508004524790117</v>
+        <v>-1.550485105456741</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.978559122275731</v>
+        <v>-3.116267778696124</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.641251035656744</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.33671943152001</v>
+        <v>-14.43529647697761</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.586248190688224</v>
+        <v>-1.639753481839741</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.219997837391459</v>
+        <v>-3.351267671768125</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.404919153692577</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.4823189450236</v>
+        <v>-14.56951438249503</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.618295630700852</v>
+        <v>-1.668129277695316</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.424915671211332</v>
+        <v>-3.541846048447336</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.166391015942852</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.51865404405851</v>
+        <v>-14.60025156866732</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.833563492057984</v>
+        <v>-1.881480648360617</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.49662762393524</v>
+        <v>-3.617992330399537</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.929549129849384</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.4986628949797</v>
+        <v>-14.57934617530439</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.793463857735548</v>
+        <v>-1.844035744766916</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.846157391871591</v>
+        <v>-3.944372650821045</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.686851291849631</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.6780112228856</v>
+        <v>-14.75037341352281</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.972386842044034</v>
+        <v>-2.022743612773258</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.976283198641399</v>
+        <v>-4.081743965767621</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.446925396436868</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.80744767968718</v>
+        <v>-14.86736734784809</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.012902041950158</v>
+        <v>-2.071575013360004</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.97453782318991</v>
+        <v>-4.063395522996089</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.20348674861453</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.97754111759402</v>
+        <v>-15.03457138269658</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.045736612068359</v>
+        <v>-2.094480010531501</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.045770653240861</v>
+        <v>-4.133288765165505</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.964873342248358</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.95661127919675</v>
+        <v>-14.99690647379387</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.16056471635159</v>
+        <v>-2.215121143979494</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.930042971694117</v>
+        <v>-4.011273820787909</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.728490869547801</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.14493582371032</v>
+        <v>-15.19044269962756</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.200322120193342</v>
+        <v>-2.243531162883137</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.108217937951966</v>
+        <v>-4.17946054601665</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.498337669223587</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.44204077101274</v>
+        <v>-15.47197616005886</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.363751841740575</v>
+        <v>-2.410803643827765</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.202702884661964</v>
+        <v>-4.280926994532603</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.277225999407232</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.49064238827674</v>
+        <v>-15.5107899855753</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.433605971855056</v>
+        <v>-2.48843129486064</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.045095970293227</v>
+        <v>-4.11978043919222</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.065123209931905</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.87439520428149</v>
+        <v>-15.89050937091485</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.602570049175637</v>
+        <v>-2.655234431146045</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.011870279625673</v>
+        <v>-4.076918515989976</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.867330896819109</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.94113503702175</v>
+        <v>-15.95943947873148</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.807835002483061</v>
+        <v>-2.855150810941064</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.868940163871414</v>
+        <v>-3.932863928656327</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.680205162045999</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.34360786031992</v>
+        <v>-16.35486724313443</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.875503746528031</v>
+        <v>-2.930436627684687</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.889156207266108</v>
+        <v>-3.944905552569539</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.510838466552082</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.7697972559295</v>
+        <v>-16.77727254742901</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.954074975886221</v>
+        <v>-3.003356165104723</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.659607556850717</v>
+        <v>-3.722719746495722</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.354766914432006</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.33568024474744</v>
+        <v>-17.32579467286254</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.174940750105971</v>
+        <v>-3.21188208599238</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.490985710010821</v>
+        <v>-3.541215366561504</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.21861125715692</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.81700297079522</v>
+        <v>-17.81479313969137</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.17191445485535</v>
+        <v>-3.208083327656787</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.362893730097649</v>
+        <v>-3.416907477963325</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.101179800220092</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.40286244167137</v>
+        <v>-18.39099682200536</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.332254324062693</v>
+        <v>-3.361827926600661</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.140096798165468</v>
+        <v>-3.195503912988215</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.006191834801305</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.99144997837926</v>
+        <v>-18.97828388288665</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.444647702926201</v>
+        <v>-3.467200691603279</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.851576946921349</v>
+        <v>-2.91160417323333</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.93684934337117</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.81123376081669</v>
+        <v>-19.77826229850621</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.475335999029826</v>
+        <v>-3.498622338736942</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.820521975302705</v>
+        <v>-2.88127277463099</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.893877670321198</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.45151276712847</v>
+        <v>-20.42624637964025</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.429261998316019</v>
+        <v>-3.457764908350133</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.535106643419077</v>
+        <v>-2.593139154929358</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.88571116530976</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.44445050577143</v>
+        <v>-21.40766072909789</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.395063395281949</v>
+        <v>-3.426524154470547</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.361370895396388</v>
+        <v>-2.426609803028501</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.910661431083147</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.2504864008991</v>
+        <v>-22.20235901730118</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.340785641045459</v>
+        <v>-3.363006177255588</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.949100502336918</v>
+        <v>-2.028145965361199</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.981290099410522</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.64796501274493</v>
+        <v>-23.58948271260289</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.308073296098931</v>
+        <v>-3.326211511575186</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.727516044107732</v>
+        <v>-1.81307855328561</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.097927693395678</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.68852167827164</v>
+        <v>-24.62123427676229</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.188615302312732</v>
+        <v>-3.206078834841352</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.553975856359719</v>
+        <v>-1.644539819562451</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.272667435313917</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.12066334880391</v>
+        <v>-26.04951852087656</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.130881020221333</v>
+        <v>-3.15229487029842</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.382176155056327</v>
+        <v>-1.479907402325957</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.512405197321605</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.47186506615096</v>
+        <v>-27.40466566676521</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.105115954032691</v>
+        <v>-3.12654447113038</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.179306815113692</v>
+        <v>-1.298363910336805</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.825135390391727</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.11186286363011</v>
+        <v>-29.03534746165946</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.178426612002081</v>
+        <v>-3.189666438789118</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.291900643258743</v>
+        <v>-1.413025788386561</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.223091446875305</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.63597164233591</v>
+        <v>-30.55282674705372</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.25815653598773</v>
+        <v>-3.276407198621923</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.180421508679348</v>
+        <v>-1.315402099268003</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.705809005744829</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.36185951245302</v>
+        <v>-32.26940105908936</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.125366220475453</v>
+        <v>-3.134802003728599</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.588858920355157</v>
+        <v>-1.725990673965254</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.287706664246306</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.33392598984334</v>
+        <v>-34.26145868555849</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.111398327856677</v>
+        <v>-3.111926340598304</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.497488271019383</v>
+        <v>-1.653936490760662</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.957381395985554</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.39455927113125</v>
+        <v>-36.31712718037305</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.302079373680094</v>
+        <v>-3.305423454377063</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.612604826707763</v>
+        <v>-1.773844273178618</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.719835774042699</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.50267947611751</v>
+        <v>-38.43443871826911</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.358146504429874</v>
+        <v>-3.35780427394919</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.988862795185537</v>
+        <v>-2.154917913420303</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.564543732581403</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.44395498825999</v>
+        <v>-40.37889941838539</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.430376691881676</v>
+        <v>-3.434287897375208</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.336730300787136</v>
+        <v>-2.50857400315233</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.471054005090998</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.59254394758714</v>
+        <v>-42.52697014298464</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.352617037663394</v>
+        <v>-3.352265029168976</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.685556051734651</v>
+        <v>-2.860220711062055</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.443260787801655</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.8633825236215</v>
+        <v>-44.81465134767552</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.435163029604385</v>
+        <v>-3.424803224053393</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.067881277734267</v>
+        <v>-3.244437982719167</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.42560207529231</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.00636745882744</v>
+        <v>-46.95881086678124</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.261075273087278</v>
+        <v>-3.260513037297583</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.422168049352126</v>
+        <v>-3.597932735224585</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.46014972914087</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.48833535190608</v>
+        <v>-49.43950272906762</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.342565239545016</v>
+        <v>-3.338957152477233</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.160090300809934</v>
+        <v>-4.324414710613811</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.43306569999095</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.7518575291641</v>
+        <v>-51.6973524361083</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.354509083320889</v>
+        <v>-3.354675309554365</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.51644023332563</v>
+        <v>-4.690469321760334</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.49226862571327</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.97195799193361</v>
+        <v>-53.92312170234</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.36686849268045</v>
+        <v>-3.36292306413885</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.227463169001672</v>
+        <v>-5.399253092291329</v>
       </c>
     </row>
   </sheetData>
